--- a/Stimuli/Questions.xlsx
+++ b/Stimuli/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\SocioSpatial\SocioSpacial\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF15FA5D-E78C-443F-8EC2-2FCC2FD9BC92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7B99F-59EC-4F57-82B5-6D02B5A8B911}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4170" windowWidth="22275" windowHeight="10020" xr2:uid="{B0FFA665-AC7C-46FB-A207-FBC1F6A1A893}"/>
+    <workbookView xWindow="11670" yWindow="9570" windowWidth="17130" windowHeight="6630" xr2:uid="{B0FFA665-AC7C-46FB-A207-FBC1F6A1A893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -63,7 +63,70 @@
     <t>C. There is not enough information</t>
   </si>
   <si>
-    <t>Options</t>
+    <t>The number of people attending service at the chapel has</t>
+  </si>
+  <si>
+    <t>B.Decreased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bishop sent a thank you letter to the top donor every year. Who would receive this letter?  </t>
+  </si>
+  <si>
+    <t>C.There is not enough information</t>
+  </si>
+  <si>
+    <t>Mountain Ranger Tim McMurphy is patrolling the mountain as he does every day, he is standing at the rest stop watching birds on his break. He decides he will look for the place where tourists throw their rubbish away so that he can put a stop to it, where does he need to go?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rest stop on the mountain is frequently used by  </t>
+  </si>
+  <si>
+    <t>A.Bird Watchers</t>
+  </si>
+  <si>
+    <t>Who climbed the mountain fastest?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gardener is standing in the small play park and wants to mow the lawn there, which way does he need to go to pick up his lawnmower? </t>
+  </si>
+  <si>
+    <t>C.There is not enough information to answer</t>
+  </si>
+  <si>
+    <t>The town’s surgery has recently___</t>
+  </si>
+  <si>
+    <t>A.Been refurbished</t>
+  </si>
+  <si>
+    <t>Who is the most popular GP in town?</t>
+  </si>
+  <si>
+    <t>Allan is standing in front of the weather station facing it, he wants to buy some coffee for his friends so they can take a break, in which direction does he need to go?</t>
+  </si>
+  <si>
+    <t>The Island has no permanent population</t>
+  </si>
+  <si>
+    <t>B.False</t>
+  </si>
+  <si>
+    <t>A local fisherman’s boat has recently broken down, the fisherman doesn’t want to delay the lighthouse repair too much but also needs his boat fixed so decides to ask the least best mechanic to help him. Whom should he ask?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.There is not enough information to answer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan has decided she wants to find the flooded cavern at Lincoln gorge, she is currently at the rest stop. In which direction would she need to go to find it? </t>
+  </si>
+  <si>
+    <t>Terrance’s biological father is called Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. There is not enough information to answer </t>
+  </si>
+  <si>
+    <t>The Caves of Lincoln gorge can be dangerous to the inexperienced caver. Who in Terrance’s family is the least experienced?</t>
   </si>
 </sst>
 </file>
@@ -105,9 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +491,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,19 +507,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -470,7 +536,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -480,6 +555,24 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -488,6 +581,24 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -496,6 +607,22 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -503,6 +630,21 @@
       </c>
       <c r="B6" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/Stimuli/Questions.xlsx
+++ b/Stimuli/Questions.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\SocioSpatial\SocioSpacial\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7B99F-59EC-4F57-82B5-6D02B5A8B911}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67622E9B-F764-4388-B800-7268E09E26C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="9570" windowWidth="17130" windowHeight="6630" xr2:uid="{B0FFA665-AC7C-46FB-A207-FBC1F6A1A893}"/>
+    <workbookView xWindow="-14115" yWindow="3450" windowWidth="17130" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
   <si>
     <t>Item</t>
   </si>
@@ -87,9 +76,6 @@
     <t>Who climbed the mountain fastest?</t>
   </si>
   <si>
-    <t xml:space="preserve">The Gardener is standing in the small play park and wants to mow the lawn there, which way does he need to go to pick up his lawnmower? </t>
-  </si>
-  <si>
     <t>C.There is not enough information to answer</t>
   </si>
   <si>
@@ -127,13 +113,367 @@
   </si>
   <si>
     <t>The Caves of Lincoln gorge can be dangerous to the inexperienced caver. Who in Terrance’s family is the least experienced?</t>
+  </si>
+  <si>
+    <t>Harriet is being randomly searched by the police stop and search operation. She decides that she wants to have a coffee after the police are done, before continuing on her journey. Which way does she need to head?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harriet likes Barry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A car thief is in Harriet’s neighbourhood and wants to make away with the most expensive car, who’s car does he steal? </t>
+  </si>
+  <si>
+    <t>In order to get from the refreshment’s table to the photo booth one would have to pass by the table for well wishes.</t>
+  </si>
+  <si>
+    <t>The theme of the Prom is___</t>
+  </si>
+  <si>
+    <t>A.1950’s</t>
+  </si>
+  <si>
+    <t>The Mayor of Dunwich has decided that he would personally reward the top big charity running team with donations of £500. Which charity is most likely to receive  this donation from the Mayor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dunwich draws crowds from all over the___ </t>
+  </si>
+  <si>
+    <t>Who is the better runner out of Dustin and Ralph?</t>
+  </si>
+  <si>
+    <t>A.County</t>
+  </si>
+  <si>
+    <t>The Lodge is urgently looking for the missing child. A local police man is at the lodge and decides to look for the child himself which way should he head?</t>
+  </si>
+  <si>
+    <t>The Ski resort caters to</t>
+  </si>
+  <si>
+    <t>A.Wealthy people</t>
+  </si>
+  <si>
+    <t>Jonathan, Catherine and Thom are the first to arrive at the exclusive lodge this season, who is the least wealthy out of all of them?</t>
+  </si>
+  <si>
+    <t>Sam wants to get rid of the plastic plants that have been disrupting her business. She is standing infront of the succulents and indoor plants in which direction should she look to find the plastic plants?</t>
+  </si>
+  <si>
+    <t>The Flower Shop is located on</t>
+  </si>
+  <si>
+    <t>A. Wensley High Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The council is giving away a prize for the finest garden in the county, Agatha Sam and Rachel have all entered their gardens into the competition.  Who  is most likely to win? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A holiday maker has lost his watch by the stream.  He is standing infront of the monument to the brave dog with his back towards the summer lodges. Which way should he go to try and find his watch ? </t>
+  </si>
+  <si>
+    <t>The Monument behind the summer lodges is to commemorate</t>
+  </si>
+  <si>
+    <t>B. A dog that saved its owners life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian is new in the village and his family wants him to make friends with respected families. Out of the three friends who is Ian least likely to pick? </t>
+  </si>
+  <si>
+    <t>Which is flying higher?</t>
+  </si>
+  <si>
+    <t>Torton airfield is</t>
+  </si>
+  <si>
+    <t>B.Busy</t>
+  </si>
+  <si>
+    <t>Who is the most experienced pilot?</t>
+  </si>
+  <si>
+    <t>The delivery man has come to the office with a large package containing the new fan, he is standing infront of the managers desk facing it but the manager has gone out for lunch. Where should he put the fan so that it is already where the manager wants it to be when she comes back?</t>
+  </si>
+  <si>
+    <t>The office is very hot.</t>
+  </si>
+  <si>
+    <t>A.True</t>
+  </si>
+  <si>
+    <t>The office has decided who should handle the Barbeque, who is least likely to help the person cooking?</t>
+  </si>
+  <si>
+    <t>Daren has decided to set up a humane trap for the mouse where should he put it?</t>
+  </si>
+  <si>
+    <t>Darren’s workshop is on Yew Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of Daren’s former clients is having trouble with a recent job that Daren handled. He wants it fixed right away. Who should Daren send so that the best metal workers remain in the workshop to handle the 3 custom Jobs? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Foreman has decided to open up a new shaft. The Crew has assembled in the storage area in Shaft B. In which direction should they go to start the new mineshaft? </t>
+  </si>
+  <si>
+    <t>The mine produces___</t>
+  </si>
+  <si>
+    <t>B.Copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who has received the biggest bonus out of Lucy and Linda? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy has lost his backpack, he is standing in front of the posters facing them, which way does he need to go to find his backpack? </t>
+  </si>
+  <si>
+    <t>The food festival is held</t>
+  </si>
+  <si>
+    <t>A.Yearly</t>
+  </si>
+  <si>
+    <t>Who sells the cheapest noodles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is most likely to win the race? </t>
+  </si>
+  <si>
+    <t>Rockport has ___</t>
+  </si>
+  <si>
+    <t>A.Many events that take place throughout the year</t>
+  </si>
+  <si>
+    <t>Which is the most popular festival in Rockport?</t>
+  </si>
+  <si>
+    <t>A local archaeologist is has gone to the patch of grass that is the new potential dig site to investigate further but has forgotten his water bottle at the rest stop. Which way does he need to go to get his water?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kingsley Hills tourism board wants to build a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Museum </t>
+  </si>
+  <si>
+    <t>Which local company is likely to put the least amount of money toward tourism board’s Project?</t>
+  </si>
+  <si>
+    <t>Susan has just put her favourite song on the jukebox, she now wants to have a beer. Which way does she need to go to reach the bar?</t>
+  </si>
+  <si>
+    <t>McMurphy’s Pub is full on a Friday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the McMurphy’s are liked by their patrons but who is the least popular? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.True </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which sailing boat from Rockport is most likely to be the fastest? </t>
+  </si>
+  <si>
+    <t>The fishermen of Rockport are out at sea while the regatta is taking place.</t>
+  </si>
+  <si>
+    <t>Who is the better fisherman?</t>
+  </si>
+  <si>
+    <t>There are many teams exploring Dogger bank</t>
+  </si>
+  <si>
+    <t>Which Nation’s team is the least funded team exploring Dogger bank?</t>
+  </si>
+  <si>
+    <t>The lifeguard wants to quickly give the water filter a once over before the pool party. Does he need to watch out for the loose paving slab?</t>
+  </si>
+  <si>
+    <t>The pool has recently been refurbished</t>
+  </si>
+  <si>
+    <t>Who is least likely to come in and help with the catering?</t>
+  </si>
+  <si>
+    <t>Fred is standing by the Sculpture made of drifwood which way does he need to go to get to the sculpture made of plastic bottles?</t>
+  </si>
+  <si>
+    <t>The Gallery of Innsmouth is hosting famous artists from overseas.</t>
+  </si>
+  <si>
+    <t>Who is likely to pledge the least in support of the Gallery?</t>
+  </si>
+  <si>
+    <t>Which type of tree in the cemetery is the Tallest?</t>
+  </si>
+  <si>
+    <t>The cemetery is a popular spot for weddings.</t>
+  </si>
+  <si>
+    <t>Who is the second best storyteller?</t>
+  </si>
+  <si>
+    <t>A diver that was having a few problems at the surface has now reached the remote control submarine and wants to put a faulty piece of equipment into the basket does she need to dive lower than the other divers to reach it?</t>
+  </si>
+  <si>
+    <t>A. Left</t>
+  </si>
+  <si>
+    <t>B. Dwights</t>
+  </si>
+  <si>
+    <t>B. Down the mountain</t>
+  </si>
+  <si>
+    <t>B. Sam</t>
+  </si>
+  <si>
+    <t>The cleaner is standing in the small play park and wants to polish the surgery’s floors, which way does he need to go to pick up his floor polisher?</t>
+  </si>
+  <si>
+    <t>B.Back towards the surgery</t>
+  </si>
+  <si>
+    <t>B.Sue</t>
+  </si>
+  <si>
+    <t>B.Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Benjamin  </t>
+  </si>
+  <si>
+    <t>A.Up</t>
+  </si>
+  <si>
+    <t>A.Terrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harriet is being randomly searched by the police stop and search operation. She decides that she wants to have a coffee from the rest stop after the police are done, before continuing on her journey. Which way does she need to head? </t>
+  </si>
+  <si>
+    <t>A.Towards the bridge</t>
+  </si>
+  <si>
+    <t>A.Harriet’s</t>
+  </si>
+  <si>
+    <t>The School board is deciding which departments should receive  more funding for the next year and have decided  the basketball team would receive the most funding, who should receive the second most amount of funding based on it’s popularity?</t>
+  </si>
+  <si>
+    <t>B.The Art Department</t>
+  </si>
+  <si>
+    <t>A.The Wildlife Charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Ralph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Thom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Left </t>
+  </si>
+  <si>
+    <t>A.Agatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Back </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Joanna </t>
+  </si>
+  <si>
+    <t>A.The Helicopter</t>
+  </si>
+  <si>
+    <t>A.Josh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.To the Left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Ella </t>
+  </si>
+  <si>
+    <t>B.In front of the lathe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Steve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Linda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Jolene </t>
+  </si>
+  <si>
+    <t>A.Team Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.The Folk music Festival </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Down the hill </t>
+  </si>
+  <si>
+    <t>A.Farmer Jack’s farm</t>
+  </si>
+  <si>
+    <t>A.Left</t>
+  </si>
+  <si>
+    <t>A.Frank</t>
+  </si>
+  <si>
+    <t>A.The King Fisher</t>
+  </si>
+  <si>
+    <t>B.Herman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.No </t>
+  </si>
+  <si>
+    <t>A.Great Britian’s</t>
+  </si>
+  <si>
+    <t>The lifeguard wants to quickly give the water filter a once over before the pool party. He is at the pool’s ladder facing it does he need to watch out for the loose paving slab?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Amanda </t>
+  </si>
+  <si>
+    <t>Fred is standing by the Sculpture made of driftwood which way does he need to go to get to the sculpture made of plastic bottles?</t>
+  </si>
+  <si>
+    <t>A.Towards the Sculpture of the Whale</t>
+  </si>
+  <si>
+    <t>A.Fred</t>
+  </si>
+  <si>
+    <t>A.Oak</t>
+  </si>
+  <si>
+    <t>B.Josephine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +486,12 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,10 +514,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,11 +837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26538AA7-CABC-4FF1-A3FD-6F1346441595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,19 +932,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -608,20 +958,22 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,16 +984,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -653,6 +1008,24 @@
       </c>
       <c r="B7" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,6 +1035,24 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -670,6 +1061,24 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -678,6 +1087,24 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -686,6 +1113,24 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -694,6 +1139,24 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -702,6 +1165,24 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -709,6 +1190,24 @@
       </c>
       <c r="B14" t="s">
         <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -718,6 +1217,24 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -726,273 +1243,885 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stimuli/Questions.xlsx
+++ b/Stimuli/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\SocioSpatial\SocioSpacial\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67622E9B-F764-4388-B800-7268E09E26C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED30B38-0285-4C79-83B9-FB1E52F7E026}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14115" yWindow="3450" windowWidth="17130" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="150">
   <si>
     <t>Item</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>B.Josephine</t>
+  </si>
+  <si>
+    <t>Mountain Ranger Tim McMurphy is standing at the rest stop he wants to investigate the  place where tourists throw their rubbish away so that he can put a stop to it, where does he need to go?</t>
   </si>
 </sst>
 </file>
@@ -840,11 +843,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="58" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -906,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>

--- a/Stimuli/Questions.xlsx
+++ b/Stimuli/Questions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\SocioSpatial\SocioSpacial\Stimuli\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED30B38-0285-4C79-83B9-FB1E52F7E026}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -639,7 +633,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -833,18 +827,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
